--- a/nanDECK/Cards/Minister of Research/Minister of Research.xlsx
+++ b/nanDECK/Cards/Minister of Research/Minister of Research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4877ff4c3120fcf5/board game design/Space Roles Game/nanDECK/Cards/Minister of Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\nanDECK\Cards\Minister of Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_F25DC773A252ABDACC1048E5A95D6B645ADE58EF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EF4C2075-5EA5-42DC-929B-FC90812F6693}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE13BD-3C89-4F8D-8396-A5B9FB8927DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15525" yWindow="1410" windowWidth="20610" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -43,21 +43,6 @@
   </si>
   <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>Shill</t>
-  </si>
-  <si>
-    <t>Basic Action</t>
-  </si>
-  <si>
-    <t>Gain twice as much money from your reserve workers at the end of your turn</t>
-  </si>
-  <si>
-    <t>Recruit</t>
-  </si>
-  <si>
-    <t>Add 1 unit from the worker reserve to your worker pool</t>
   </si>
   <si>
     <t>Move this card to Minister of Defence's deck once researched
@@ -508,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -539,21 +524,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,305 +546,271 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
